--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H2">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I2">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J2">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>2474.155563921499</v>
+        <v>2068.890662014371</v>
       </c>
       <c r="R2">
-        <v>22267.40007529349</v>
+        <v>18620.01595812934</v>
       </c>
       <c r="S2">
-        <v>0.04214298090913245</v>
+        <v>0.06281924247498324</v>
       </c>
       <c r="T2">
-        <v>0.04214298090913245</v>
+        <v>0.06281924247498323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H3">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I3">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J3">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
-        <v>10.98999488203289</v>
+        <v>11.07324389978289</v>
       </c>
       <c r="R3">
-        <v>98.909953938296</v>
+        <v>99.659195098046</v>
       </c>
       <c r="S3">
-        <v>0.0001871956441457092</v>
+        <v>0.0003362250148337024</v>
       </c>
       <c r="T3">
-        <v>0.0001871956441457092</v>
+        <v>0.0003362250148337024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H4">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I4">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J4">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>1468.225640917708</v>
+        <v>651.4141671218945</v>
       </c>
       <c r="R4">
-        <v>13214.03076825938</v>
+        <v>5862.727504097051</v>
       </c>
       <c r="S4">
-        <v>0.02500869632361441</v>
+        <v>0.01977936546739815</v>
       </c>
       <c r="T4">
-        <v>0.02500869632361442</v>
+        <v>0.01977936546739814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H5">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I5">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J5">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>11.77746621716356</v>
+        <v>12.74405088369467</v>
       </c>
       <c r="R5">
-        <v>105.997195954472</v>
+        <v>114.696457953252</v>
       </c>
       <c r="S5">
-        <v>0.0002006088627512122</v>
+        <v>0.0003869569510245963</v>
       </c>
       <c r="T5">
-        <v>0.0002006088627512122</v>
+        <v>0.0003869569510245964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H6">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I6">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J6">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>858.5871178052257</v>
+        <v>648.120306050973</v>
       </c>
       <c r="R6">
-        <v>7727.284060247031</v>
+        <v>5833.082754458757</v>
       </c>
       <c r="S6">
-        <v>0.01462455354146871</v>
+        <v>0.01967935155120034</v>
       </c>
       <c r="T6">
-        <v>0.01462455354146871</v>
+        <v>0.01967935155120034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
         <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>8964.363557593681</v>
+        <v>7439.652021129925</v>
       </c>
       <c r="R7">
-        <v>80679.27201834312</v>
+        <v>66956.86819016933</v>
       </c>
       <c r="S7">
-        <v>0.1526925015464305</v>
+        <v>0.2258956032939036</v>
       </c>
       <c r="T7">
-        <v>0.1526925015464305</v>
+        <v>0.2258956032939036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
         <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
-        <v>39.81896330822734</v>
+        <v>39.81896330822732</v>
       </c>
       <c r="R8">
         <v>358.370669774046</v>
       </c>
       <c r="S8">
-        <v>0.0006782474938076744</v>
+        <v>0.001209052347274125</v>
       </c>
       <c r="T8">
-        <v>0.0006782474938076744</v>
+        <v>0.001209052347274125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
         <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>5319.676992705431</v>
+        <v>2342.460534044116</v>
       </c>
       <c r="R9">
-        <v>47877.09293434888</v>
+        <v>21082.14480639705</v>
       </c>
       <c r="S9">
-        <v>0.09061154004035342</v>
+        <v>0.07112584486843894</v>
       </c>
       <c r="T9">
-        <v>0.09061154004035342</v>
+        <v>0.07112584486843893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
         <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>42.67213044219134</v>
+        <v>45.827121585028</v>
       </c>
       <c r="R10">
-        <v>384.0491739797221</v>
+        <v>412.444094265252</v>
       </c>
       <c r="S10">
-        <v>0.0007268462843649785</v>
+        <v>0.001391482457549231</v>
       </c>
       <c r="T10">
-        <v>0.0007268462843649784</v>
+        <v>0.001391482457549231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
         <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>3110.833927383865</v>
+        <v>2330.615935088972</v>
       </c>
       <c r="R11">
-        <v>27997.50534645478</v>
+        <v>20975.54341580076</v>
       </c>
       <c r="S11">
-        <v>0.05298770082404541</v>
+        <v>0.07076619863510071</v>
       </c>
       <c r="T11">
-        <v>0.0529877008240454</v>
+        <v>0.0707661986351007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H12">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N12">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O12">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P12">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q12">
-        <v>8807.066957968853</v>
+        <v>4796.472213780477</v>
       </c>
       <c r="R12">
-        <v>79263.60262171966</v>
+        <v>43168.2499240243</v>
       </c>
       <c r="S12">
-        <v>0.1500132247492376</v>
+        <v>0.1456387988762175</v>
       </c>
       <c r="T12">
-        <v>0.1500132247492376</v>
+        <v>0.1456387988762175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H13">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q13">
-        <v>39.12026479062156</v>
+        <v>25.67197370885222</v>
       </c>
       <c r="R13">
-        <v>352.082383115594</v>
+        <v>231.04776337967</v>
       </c>
       <c r="S13">
-        <v>0.0006663463673312013</v>
+        <v>0.0007794969404799703</v>
       </c>
       <c r="T13">
-        <v>0.0006663463673312013</v>
+        <v>0.0007794969404799701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H14">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N14">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q14">
-        <v>5226.333265994774</v>
+        <v>1510.224783566361</v>
       </c>
       <c r="R14">
-        <v>47036.99939395297</v>
+        <v>13592.02305209725</v>
       </c>
       <c r="S14">
-        <v>0.08902159034191186</v>
+        <v>0.045856061227621</v>
       </c>
       <c r="T14">
-        <v>0.08902159034191186</v>
+        <v>0.04585606122762098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H15">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N15">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O15">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P15">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q15">
-        <v>41.92336774708423</v>
+        <v>29.54553716972667</v>
       </c>
       <c r="R15">
-        <v>377.3103097237581</v>
+        <v>265.90983452754</v>
       </c>
       <c r="S15">
-        <v>0.0007140924008074889</v>
+        <v>0.0008971127849315977</v>
       </c>
       <c r="T15">
-        <v>0.0007140924008074888</v>
+        <v>0.0008971127849315977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H16">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N16">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q16">
-        <v>3056.248501923233</v>
+        <v>1502.588365947585</v>
       </c>
       <c r="R16">
-        <v>27506.2365173091</v>
+        <v>13523.29529352826</v>
       </c>
       <c r="S16">
-        <v>0.05205793206712125</v>
+        <v>0.04562419108637</v>
       </c>
       <c r="T16">
-        <v>0.05205793206712125</v>
+        <v>0.04562419108636999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H17">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I17">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J17">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N17">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O17">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P17">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q17">
-        <v>1464.233066459951</v>
+        <v>1057.487651201347</v>
       </c>
       <c r="R17">
-        <v>13178.09759813956</v>
+        <v>9517.38886081212</v>
       </c>
       <c r="S17">
-        <v>0.02494068969072312</v>
+        <v>0.03210927208228487</v>
       </c>
       <c r="T17">
-        <v>0.02494068969072312</v>
+        <v>0.03210927208228486</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H18">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I18">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J18">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q18">
-        <v>6.504002473067112</v>
+        <v>5.659950473825333</v>
       </c>
       <c r="R18">
-        <v>58.536022257604</v>
+        <v>50.939554264428</v>
       </c>
       <c r="S18">
-        <v>0.0001107844858473556</v>
+        <v>0.0001718572217177711</v>
       </c>
       <c r="T18">
-        <v>0.0001107844858473556</v>
+        <v>0.000171857221717771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H19">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I19">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J19">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N19">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q19">
-        <v>868.9124337228915</v>
+        <v>332.9622247307666</v>
       </c>
       <c r="R19">
-        <v>7820.211903506024</v>
+        <v>2996.6600225769</v>
       </c>
       <c r="S19">
-        <v>0.01480042752366459</v>
+        <v>0.01010997589887455</v>
       </c>
       <c r="T19">
-        <v>0.01480042752366459</v>
+        <v>0.01010997589887454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H20">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I20">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J20">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N20">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O20">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P20">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q20">
-        <v>6.970036858536445</v>
+        <v>6.513962619304</v>
       </c>
       <c r="R20">
-        <v>62.73033172682801</v>
+        <v>58.62566357373601</v>
       </c>
       <c r="S20">
-        <v>0.0001187225793513487</v>
+        <v>0.0001977882179895462</v>
       </c>
       <c r="T20">
-        <v>0.0001187225793513487</v>
+        <v>0.0001977882179895462</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H21">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I21">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J21">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N21">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q21">
-        <v>508.1215048314742</v>
+        <v>331.278608737314</v>
       </c>
       <c r="R21">
-        <v>4573.093543483268</v>
+        <v>2981.507478635826</v>
       </c>
       <c r="S21">
-        <v>0.00865497513167361</v>
+        <v>0.01005885503334534</v>
       </c>
       <c r="T21">
-        <v>0.00865497513167361</v>
+        <v>0.01005885503334534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H22">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I22">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J22">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N22">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O22">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P22">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q22">
-        <v>8402.571944105697</v>
+        <v>4723.591962089213</v>
       </c>
       <c r="R22">
-        <v>75623.14749695126</v>
+        <v>42512.32765880292</v>
       </c>
       <c r="S22">
-        <v>0.1431233485039236</v>
+        <v>0.1434258824149031</v>
       </c>
       <c r="T22">
-        <v>0.1431233485039236</v>
+        <v>0.143425882414903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H23">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I23">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J23">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q23">
-        <v>37.32353131234422</v>
+        <v>25.28189954143867</v>
       </c>
       <c r="R23">
-        <v>335.911781811098</v>
+        <v>227.537095872948</v>
       </c>
       <c r="S23">
-        <v>0.0006357421055062793</v>
+        <v>0.0007676528328352865</v>
       </c>
       <c r="T23">
-        <v>0.0006357421055062794</v>
+        <v>0.0007676528328352864</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H24">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I24">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J24">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N24">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q24">
-        <v>4986.295832764043</v>
+        <v>1487.277592916433</v>
       </c>
       <c r="R24">
-        <v>44876.66249487639</v>
+        <v>13385.4983362479</v>
       </c>
       <c r="S24">
-        <v>0.0849329658780215</v>
+        <v>0.04515929887085442</v>
       </c>
       <c r="T24">
-        <v>0.08493296587802153</v>
+        <v>0.04515929887085442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H25">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I25">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J25">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N25">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O25">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P25">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q25">
-        <v>39.99789206954289</v>
+        <v>29.096605936664</v>
       </c>
       <c r="R25">
-        <v>359.981028625886</v>
+        <v>261.869453429976</v>
       </c>
       <c r="S25">
-        <v>0.0006812952372406962</v>
+        <v>0.0008834815570943091</v>
       </c>
       <c r="T25">
-        <v>0.0006812952372406963</v>
+        <v>0.0008834815570943091</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H26">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I26">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J26">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N26">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q26">
-        <v>2915.879717848518</v>
+        <v>1479.757207250574</v>
       </c>
       <c r="R26">
-        <v>26242.91746063667</v>
+        <v>13317.81486525517</v>
       </c>
       <c r="S26">
-        <v>0.0496669914675242</v>
+        <v>0.04493095189277438</v>
       </c>
       <c r="T26">
-        <v>0.0496669914675242</v>
+        <v>0.04493095189277437</v>
       </c>
     </row>
   </sheetData>
